--- a/web/archivos_generados/listadoDebitosAutomaticos40.xlsx
+++ b/web/archivos_generados/listadoDebitosAutomaticos40.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Nro</t>
   </si>
@@ -41,28 +41,16 @@
     <t>CBU</t>
   </si>
   <si>
-    <t>CBU ABRIL</t>
+    <t>ABRIL 2020 CBU</t>
   </si>
   <si>
     <t>01-04-2020 al 30-04-2020</t>
   </si>
   <si>
-    <t>CBU MAYO</t>
+    <t>CBU MAYO 2020</t>
   </si>
   <si>
     <t>01-05-2020 al 31-05-2020</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>TC ABRIL</t>
-  </si>
-  <si>
-    <t>Debito Enero TC</t>
-  </si>
-  <si>
-    <t>01-05-2020 al 24-07-2020</t>
   </si>
 </sst>
 </file>
@@ -401,7 +389,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="G1" sqref="G1"/>
@@ -411,7 +399,7 @@
   <cols>
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567139" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="29.421387" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="23.422852" bestFit="true" customWidth="true" style="0"/>
@@ -443,7 +431,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -455,18 +443,16 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>181</v>
-      </c>
-      <c r="F3">
-        <v>165</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F3"/>
       <c r="G3">
-        <v>586546.4</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -478,77 +464,10 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>268</v>
-      </c>
-      <c r="F4">
-        <v>260</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="F4"/>
       <c r="G4">
-        <v>538095.0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>98</v>
-      </c>
-      <c r="F5">
-        <v>90</v>
-      </c>
-      <c r="G5">
-        <v>313342.0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>47</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>269</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7">
         <v>0.0</v>
       </c>
     </row>
